--- a/documentation/risklist.xlsx
+++ b/documentation/risklist.xlsx
@@ -16,20 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Popis</t>
-  </si>
-  <si>
-    <t>Úroveň složitosti</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Dopad</t>
   </si>
   <si>
-    <t>Řešení</t>
-  </si>
-  <si>
     <t>Nalézt obecné metodiky pro řešení, zanalyzovat je a vhodně zakomponovat.</t>
   </si>
   <si>
@@ -88,6 +79,30 @@
   </si>
   <si>
     <t>Nestíhání sepisování poznatků z implementace do diplomové práce a zapomenutí důležitých poznatků.</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Mitigační akce</t>
+  </si>
+  <si>
+    <t>Popis riziko</t>
+  </si>
+  <si>
+    <t>Pravděpodobnost</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>hight</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Úroveň složitosti (závažnost)</t>
   </si>
 </sst>
 </file>
@@ -112,12 +127,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,17 +165,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -444,112 +496,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="91.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="57.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="91.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
+      <c r="F11" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/risklist.xlsx
+++ b/documentation/risklist.xlsx
@@ -21,21 +21,12 @@
     <t>Dopad</t>
   </si>
   <si>
-    <t>Nalézt obecné metodiky pro řešení, zanalyzovat je a vhodně zakomponovat.</t>
-  </si>
-  <si>
-    <t>V průběhu zajišťovat citace a použité zdroje.</t>
-  </si>
-  <si>
     <t>V průběhu vývoje vznikne podobné řešení.</t>
   </si>
   <si>
     <t>Průběžná analýza.Konzultace se zákazníkem. Změna diplomové práce, popř. změna požadavků.</t>
   </si>
   <si>
-    <t>Průběžné psaní (dokud je to čerstvé). Najít experta pro kontrolu sepsání BP. Zkontrolovat jedinečnost.</t>
-  </si>
-  <si>
     <t>Při každém použití si ukládat zdroje!!!</t>
   </si>
   <si>
@@ -103,13 +94,22 @@
   </si>
   <si>
     <t>Úroveň složitosti (závažnost)</t>
+  </si>
+  <si>
+    <t>Neznám obecné metodiky pro řešení - přepsat</t>
+  </si>
+  <si>
+    <t>Průběžné psaní (dokud je to čerstvé). Najít experta pro kontrolu sepsání DP.</t>
+  </si>
+  <si>
+    <t>V průběhu zajišťovat citace a použité zdroje. - přepsat, je to řešení</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +124,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -165,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,6 +212,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -499,7 +530,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,41 +546,41 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="D2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15">
         <v>1</v>
       </c>
     </row>
@@ -558,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -578,16 +609,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -598,16 +629,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -618,16 +649,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -638,16 +669,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -658,16 +689,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -678,16 +709,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -698,16 +729,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -718,16 +749,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>

--- a/documentation/risklist.xlsx
+++ b/documentation/risklist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD045FBF-56F6-4CC5-BD4A-BD13AD4278D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -16,20 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Dopad</t>
   </si>
   <si>
-    <t>V průběhu vývoje vznikne podobné řešení.</t>
-  </si>
-  <si>
-    <t>Průběžná analýza.Konzultace se zákazníkem. Změna diplomové práce, popř. změna požadavků.</t>
-  </si>
-  <si>
-    <t>Při každém použití si ukládat zdroje!!!</t>
-  </si>
-  <si>
     <t>Provést rešerši, analýzu současného stavu, popř. vymyslet vlastní metodiku, pokud by existující metodiky nebyly vhodné.</t>
   </si>
   <si>
@@ -51,18 +43,12 @@
     <t>Nepochopení požadavků zákazníka.</t>
   </si>
   <si>
-    <t>Průběžné konzultace (např. jednou týdně, jednou za dva týdny) s demonstrací a následnou podrobnější specifikací požadavků pro následující sprint.</t>
-  </si>
-  <si>
     <t>Aplikace bude příliš komplexní a nebude použitelná pro koncového uživatele - nároky na výpočtní výkon, paměť.</t>
   </si>
   <si>
     <t>Otestovat vytíženost, nároky na paměť. Pokud se zjistí problémy, nalézt slabá místa aplikace a alternativní řešení, které tyto problémy vyřeší.</t>
   </si>
   <si>
-    <t>Otestovat, zda je práce s aplikací intuitivní (zda splňuje požadavky na UX (user experience)).</t>
-  </si>
-  <si>
     <t>Průběžná konzultace se zákazníkem včetně demonstrace aplikace. Zpřístupnit aplikaci zákazníkovi aby si ji mohl sám proklikat a odzkoušet.</t>
   </si>
   <si>
@@ -96,20 +82,29 @@
     <t>Úroveň složitosti (závažnost)</t>
   </si>
   <si>
-    <t>Neznám obecné metodiky pro řešení - přepsat</t>
-  </si>
-  <si>
-    <t>Průběžné psaní (dokud je to čerstvé). Najít experta pro kontrolu sepsání DP.</t>
-  </si>
-  <si>
-    <t>V průběhu zajišťovat citace a použité zdroje. - přepsat, je to řešení</t>
+    <t>V průběhu zapomenu zapisovat citace a použité zdroje.</t>
+  </si>
+  <si>
+    <t>Průběžně ukládat odkazy na zdroje do pomocného souboru, který se bude průběžně (týdně-co dva týdny) kontrolovat a po zapsání zdroje do diplomové práce bude zdroj ze souboru odstraněn.</t>
+  </si>
+  <si>
+    <t>Uživatel nebude vědět, jak aplikaci použít.</t>
+  </si>
+  <si>
+    <t>Neznám vhodnou metodiku, jak implementovat neuronovou síť, jak procházet soubory, jak vhodně uchovávat zpracované informace.</t>
+  </si>
+  <si>
+    <t>Průběžné psaní (dokud je to čerstvé). Nechat si práci zkontrolovat.</t>
+  </si>
+  <si>
+    <t>Průběžné konzultace (např. jednou týdně, jednou za dva týdny) s demonstrací pokroku a zpětnou vazbou od zákazníka.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,23 +119,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -182,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,20 +190,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -236,14 +200,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -281,7 +248,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -353,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,59 +513,59 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -606,19 +573,19 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -626,19 +593,19 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -646,19 +613,19 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -666,19 +633,19 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -686,39 +653,39 @@
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -726,41 +693,21 @@
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="10">
         <v>1</v>
       </c>
     </row>
@@ -771,7 +718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -783,7 +730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/documentation/risklist.xlsx
+++ b/documentation/risklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD045FBF-56F6-4CC5-BD4A-BD13AD4278D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB10A1CC-4755-438B-B41D-82A5D2088594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>Mitigační akce</t>
   </si>
   <si>
-    <t>Popis riziko</t>
-  </si>
-  <si>
     <t>Pravděpodobnost</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Průběžné konzultace (např. jednou týdně, jednou za dva týdny) s demonstrací pokroku a zpětnou vazbou od zákazníka.</t>
+  </si>
+  <si>
+    <t>Popis rizika</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,10 +516,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -528,7 +528,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -536,13 +536,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>2</v>
@@ -579,10 +579,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
@@ -599,10 +599,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>5</v>
@@ -619,13 +619,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -639,13 +639,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -656,16 +656,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -676,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>10</v>
@@ -699,10 +699,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>9</v>

--- a/documentation/risklist.xlsx
+++ b/documentation/risklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB10A1CC-4755-438B-B41D-82A5D2088594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C88C419-7A78-4DCE-AB1B-E26B01AD8C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +533,7 @@
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>23</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>12</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>22</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
